--- a/data/datosMercados.xlsx
+++ b/data/datosMercados.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e667a57e719d23b4/Escritorio/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{EF02BDEB-EEC2-46F1-B2C5-962A5C64EA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9208AA2-C0F4-41A9-BF58-D53220F6A912}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RapidMiner Data" sheetId="1" r:id="rId1"/>
@@ -298,10 +304,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#.000"/>
-    <numFmt numFmtId="166" formatCode="#.0"/>
+    <numFmt numFmtId="165" formatCode="#.0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -341,15 +347,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,14 +363,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -405,7 +411,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -477,7 +483,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -650,11 +656,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="J46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T82" sqref="T82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1357,1180 +1363,1180 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="3">
-        <v>1912</v>
+        <v>1836</v>
       </c>
       <c r="B12" s="3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3">
-        <v>3.8780000000000001</v>
+        <v>6.5519999999999996</v>
       </c>
       <c r="D12" s="3">
-        <v>7.9340000000000002</v>
+        <v>4.84</v>
       </c>
       <c r="E12" s="3">
-        <v>6.0670000000000002</v>
+        <v>7.8479999999999999</v>
       </c>
       <c r="F12" s="3">
-        <v>4.2089999999999996</v>
+        <v>5.5810000000000004</v>
       </c>
       <c r="G12" s="3">
-        <v>4.8499999999999996</v>
+        <v>6.101</v>
       </c>
       <c r="H12" s="3">
-        <v>3.9</v>
+        <v>5.8120000000000003</v>
       </c>
       <c r="I12" s="3">
-        <v>582.5</v>
+        <v>265</v>
       </c>
       <c r="J12" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12" s="3">
-        <v>8900</v>
+        <v>5600</v>
       </c>
       <c r="L12" s="3">
-        <v>11500</v>
+        <v>7500</v>
       </c>
       <c r="M12" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="N12" s="3">
-        <v>7000</v>
+        <v>7900</v>
       </c>
       <c r="O12" s="3">
-        <v>16800</v>
+        <v>14900</v>
       </c>
       <c r="P12" s="3">
-        <v>23300</v>
+        <v>11400</v>
       </c>
       <c r="Q12" s="3">
-        <v>11100</v>
+        <v>6000</v>
       </c>
       <c r="R12" s="3">
         <v>8200</v>
       </c>
       <c r="S12" s="3">
+        <v>13200</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="3">
+        <v>1912</v>
+      </c>
+      <c r="B13" s="3">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3.8780000000000001</v>
+      </c>
+      <c r="D13" s="3">
+        <v>7.9340000000000002</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6.0670000000000002</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4.2089999999999996</v>
+      </c>
+      <c r="G13" s="3">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="H13" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="I13" s="3">
+        <v>582.5</v>
+      </c>
+      <c r="J13" s="4">
+        <v>28</v>
+      </c>
+      <c r="K13" s="3">
+        <v>8900</v>
+      </c>
+      <c r="L13" s="3">
+        <v>11500</v>
+      </c>
+      <c r="M13" s="3">
+        <v>9300</v>
+      </c>
+      <c r="N13" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O13" s="3">
+        <v>16800</v>
+      </c>
+      <c r="P13" s="3">
+        <v>23300</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>11100</v>
+      </c>
+      <c r="R13" s="3">
+        <v>8200</v>
+      </c>
+      <c r="S13" s="3">
         <v>29300</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="5">
-        <v>1830</v>
-      </c>
-      <c r="B13" s="5">
-        <v>13</v>
-      </c>
-      <c r="C13" s="5">
-        <v>10.898</v>
-      </c>
-      <c r="D13" s="5">
-        <v>8.83</v>
-      </c>
-      <c r="E13" s="5">
-        <v>8.5850000000000009</v>
-      </c>
-      <c r="F13" s="5">
-        <v>6.27</v>
-      </c>
-      <c r="G13" s="5">
-        <v>10.461</v>
-      </c>
-      <c r="H13" s="5">
-        <v>9.7750000000000004</v>
-      </c>
-      <c r="I13" s="5">
-        <v>369</v>
-      </c>
-      <c r="J13" s="6">
-        <v>16</v>
-      </c>
-      <c r="K13" s="5">
-        <v>8700</v>
-      </c>
-      <c r="L13" s="5">
-        <v>16300</v>
-      </c>
-      <c r="M13" s="5">
-        <v>11900</v>
-      </c>
-      <c r="N13" s="5">
-        <v>10200</v>
-      </c>
-      <c r="O13" s="5">
-        <v>15800</v>
-      </c>
-      <c r="P13" s="5">
-        <v>19200</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>15800</v>
-      </c>
-      <c r="R13" s="5">
-        <v>14600</v>
-      </c>
-      <c r="S13" s="5">
-        <v>15400</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="3">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="B14" s="3">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3">
-        <v>6.5519999999999996</v>
+        <v>10.898</v>
       </c>
       <c r="D14" s="3">
-        <v>4.84</v>
+        <v>8.83</v>
       </c>
       <c r="E14" s="3">
-        <v>7.8479999999999999</v>
+        <v>8.5850000000000009</v>
       </c>
       <c r="F14" s="3">
-        <v>5.5810000000000004</v>
+        <v>6.27</v>
       </c>
       <c r="G14" s="3">
-        <v>6.101</v>
+        <v>10.461</v>
       </c>
       <c r="H14" s="3">
-        <v>5.8120000000000003</v>
+        <v>9.7750000000000004</v>
       </c>
       <c r="I14" s="3">
-        <v>265</v>
+        <v>369</v>
       </c>
       <c r="J14" s="4">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K14" s="3">
-        <v>5600</v>
+        <v>8700</v>
       </c>
       <c r="L14" s="3">
-        <v>7500</v>
+        <v>16300</v>
       </c>
       <c r="M14" s="3">
-        <v>9500</v>
+        <v>11900</v>
       </c>
       <c r="N14" s="3">
-        <v>7900</v>
+        <v>10200</v>
       </c>
       <c r="O14" s="3">
-        <v>14900</v>
+        <v>15800</v>
       </c>
       <c r="P14" s="3">
-        <v>11400</v>
+        <v>19200</v>
       </c>
       <c r="Q14" s="3">
-        <v>6000</v>
+        <v>15800</v>
       </c>
       <c r="R14" s="3">
-        <v>8200</v>
+        <v>14600</v>
       </c>
       <c r="S14" s="3">
-        <v>13200</v>
+        <v>15400</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="3">
-        <v>1878</v>
+        <v>2331</v>
       </c>
       <c r="B15" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3">
-        <v>13.654</v>
+        <v>4.1980000000000004</v>
       </c>
       <c r="D15" s="3">
-        <v>18.702999999999999</v>
+        <v>10.952</v>
       </c>
       <c r="E15" s="3">
-        <v>30.37</v>
+        <v>11.704000000000001</v>
       </c>
       <c r="F15" s="3">
-        <v>27.081</v>
+        <v>16.244</v>
       </c>
       <c r="G15" s="3">
-        <v>28.187000000000001</v>
+        <v>11.702999999999999</v>
       </c>
       <c r="H15" s="3">
-        <v>26.09</v>
+        <v>11.068</v>
       </c>
       <c r="I15" s="3">
-        <v>1392</v>
+        <v>246</v>
       </c>
       <c r="J15" s="4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K15" s="3">
-        <v>10500</v>
+        <v>1600</v>
       </c>
       <c r="L15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O15" s="3">
+        <v>48800</v>
+      </c>
+      <c r="P15" s="3">
+        <v>9600</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>6200</v>
+      </c>
+      <c r="R15" s="3">
         <v>5400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="S15" s="3">
         <v>10900</v>
       </c>
-      <c r="N15" s="3">
-        <v>6100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>25400</v>
-      </c>
-      <c r="P15" s="3">
-        <v>22800</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>8400</v>
-      </c>
-      <c r="R15" s="3">
-        <v>9500</v>
-      </c>
-      <c r="S15" s="3">
-        <v>12400</v>
-      </c>
       <c r="T15" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="3">
-        <v>1853</v>
+        <v>1878</v>
       </c>
       <c r="B16" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3">
-        <v>3.222</v>
+        <v>13.654</v>
       </c>
       <c r="D16" s="3">
-        <v>2.86</v>
+        <v>18.702999999999999</v>
       </c>
       <c r="E16" s="3">
-        <v>3.798</v>
+        <v>30.37</v>
       </c>
       <c r="F16" s="3">
-        <v>-0.32100000000000001</v>
+        <v>27.081</v>
       </c>
       <c r="G16" s="3">
-        <v>1.641</v>
+        <v>28.187000000000001</v>
       </c>
       <c r="H16" s="3">
-        <v>3.1419999999999999</v>
+        <v>26.09</v>
       </c>
       <c r="I16" s="3">
-        <v>1107</v>
+        <v>1392</v>
       </c>
       <c r="J16" s="4">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="K16" s="3">
-        <v>49300</v>
+        <v>10500</v>
       </c>
       <c r="L16" s="3">
-        <v>52100</v>
+        <v>5400</v>
       </c>
       <c r="M16" s="3">
-        <v>44000</v>
+        <v>10900</v>
       </c>
       <c r="N16" s="3">
-        <v>49000</v>
+        <v>6100</v>
       </c>
       <c r="O16" s="3">
-        <v>48300</v>
+        <v>25400</v>
       </c>
       <c r="P16" s="3">
-        <v>88200</v>
+        <v>22800</v>
       </c>
       <c r="Q16" s="3">
-        <v>42600</v>
+        <v>8400</v>
       </c>
       <c r="R16" s="3">
-        <v>23200</v>
+        <v>9500</v>
       </c>
       <c r="S16" s="3">
-        <v>103500</v>
+        <v>12400</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="3">
-        <v>2264</v>
+        <v>1853</v>
       </c>
       <c r="B17" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3">
-        <v>6.1769999999999996</v>
+        <v>3.222</v>
       </c>
       <c r="D17" s="3">
-        <v>6.3719999999999999</v>
+        <v>2.86</v>
       </c>
       <c r="E17" s="3">
-        <v>8.3490000000000002</v>
+        <v>3.798</v>
       </c>
       <c r="F17" s="3">
-        <v>10.882</v>
+        <v>-0.32100000000000001</v>
       </c>
       <c r="G17" s="3">
-        <v>11.99</v>
+        <v>1.641</v>
       </c>
       <c r="H17" s="3">
-        <v>8.6280000000000001</v>
+        <v>3.1419999999999999</v>
       </c>
       <c r="I17" s="3">
-        <v>278</v>
+        <v>1107</v>
       </c>
       <c r="J17" s="4">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K17" s="3">
-        <v>4500</v>
+        <v>49300</v>
       </c>
       <c r="L17" s="3">
-        <v>2500</v>
+        <v>52100</v>
       </c>
       <c r="M17" s="3">
-        <v>1900</v>
+        <v>44000</v>
       </c>
       <c r="N17" s="3">
-        <v>1300</v>
+        <v>49000</v>
       </c>
       <c r="O17" s="3">
-        <v>10200</v>
+        <v>48300</v>
       </c>
       <c r="P17" s="3">
-        <v>9600</v>
+        <v>88200</v>
       </c>
       <c r="Q17" s="3">
-        <v>5400</v>
+        <v>42600</v>
       </c>
       <c r="R17" s="3">
-        <v>3000</v>
+        <v>23200</v>
       </c>
       <c r="S17" s="3">
-        <v>14100</v>
+        <v>103500</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="3">
-        <v>2165</v>
+        <v>1674</v>
       </c>
       <c r="B18" s="3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3">
-        <v>11.827999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="D18" s="3">
-        <v>13.763999999999999</v>
+        <v>1.712</v>
       </c>
       <c r="E18" s="3">
-        <v>15.048999999999999</v>
+        <v>3.399</v>
       </c>
       <c r="F18" s="3">
-        <v>-4.8650000000000002</v>
+        <v>1.319</v>
       </c>
       <c r="G18" s="3">
-        <v>-2.4329999999999998</v>
+        <v>2.298</v>
       </c>
       <c r="H18" s="3">
-        <v>2</v>
+        <v>2.7570000000000001</v>
       </c>
       <c r="I18" s="3">
-        <v>1502</v>
+        <v>867.5</v>
       </c>
       <c r="J18" s="4">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="K18" s="3">
-        <v>22300</v>
+        <v>86500</v>
       </c>
       <c r="L18" s="3">
-        <v>10400</v>
+        <v>56300</v>
       </c>
       <c r="M18" s="3">
-        <v>9800</v>
+        <v>68400</v>
       </c>
       <c r="N18" s="3">
-        <v>4100</v>
+        <v>58500</v>
       </c>
       <c r="O18" s="3">
-        <v>13700</v>
+        <v>61000</v>
       </c>
       <c r="P18" s="3">
-        <v>32900</v>
+        <v>89200</v>
       </c>
       <c r="Q18" s="3">
-        <v>19800</v>
+        <v>61900</v>
       </c>
       <c r="R18" s="3">
-        <v>10900</v>
+        <v>46000</v>
       </c>
       <c r="S18" s="3">
-        <v>23100</v>
+        <v>109200</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="3">
-        <v>2095</v>
+        <v>2264</v>
       </c>
       <c r="B19" s="3">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3">
-        <v>9.2720000000000002</v>
+        <v>6.1769999999999996</v>
       </c>
       <c r="D19" s="3">
-        <v>11.115</v>
+        <v>6.3719999999999999</v>
       </c>
       <c r="E19" s="3">
-        <v>11.454000000000001</v>
+        <v>8.3490000000000002</v>
       </c>
       <c r="F19" s="3">
-        <v>1.56</v>
+        <v>10.882</v>
       </c>
       <c r="G19" s="3">
-        <v>0.878</v>
+        <v>11.99</v>
       </c>
       <c r="H19" s="3">
-        <v>0.88200000000000001</v>
+        <v>8.6280000000000001</v>
       </c>
       <c r="I19" s="3">
-        <v>1741.5</v>
+        <v>278</v>
       </c>
       <c r="J19" s="4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K19" s="3">
-        <v>35900</v>
+        <v>4500</v>
       </c>
       <c r="L19" s="3">
-        <v>16300</v>
+        <v>2500</v>
       </c>
       <c r="M19" s="3">
-        <v>14200</v>
+        <v>1900</v>
       </c>
       <c r="N19" s="3">
-        <v>3600</v>
+        <v>1300</v>
       </c>
       <c r="O19" s="3">
-        <v>58100</v>
+        <v>10200</v>
       </c>
       <c r="P19" s="3">
-        <v>64800</v>
+        <v>9600</v>
       </c>
       <c r="Q19" s="3">
-        <v>22900</v>
+        <v>5400</v>
       </c>
       <c r="R19" s="3">
-        <v>13600</v>
+        <v>3000</v>
       </c>
       <c r="S19" s="3">
-        <v>80000</v>
+        <v>14100</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="3">
-        <v>1707</v>
+        <v>2165</v>
       </c>
       <c r="B20" s="3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3">
-        <v>2.7</v>
+        <v>11.827999999999999</v>
       </c>
       <c r="D20" s="3">
-        <v>2.8730000000000002</v>
+        <v>13.763999999999999</v>
       </c>
       <c r="E20" s="3">
-        <v>3.1080000000000001</v>
+        <v>15.048999999999999</v>
       </c>
       <c r="F20" s="3">
-        <v>-1.6830000000000001</v>
+        <v>-4.8650000000000002</v>
       </c>
       <c r="G20" s="3">
-        <v>-1.5569999999999999</v>
+        <v>-2.4329999999999998</v>
       </c>
       <c r="H20" s="3">
-        <v>1.139</v>
+        <v>2</v>
       </c>
       <c r="I20" s="3">
-        <v>796</v>
+        <v>1502</v>
       </c>
       <c r="J20" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>57100</v>
+        <v>22300</v>
       </c>
       <c r="L20" s="3">
-        <v>45500</v>
+        <v>10400</v>
       </c>
       <c r="M20" s="3">
-        <v>38300</v>
+        <v>9800</v>
       </c>
       <c r="N20" s="3">
-        <v>28200</v>
+        <v>4100</v>
       </c>
       <c r="O20" s="3">
-        <v>42100</v>
+        <v>13700</v>
       </c>
       <c r="P20" s="3">
-        <v>54300</v>
+        <v>32900</v>
       </c>
       <c r="Q20" s="3">
-        <v>31700</v>
+        <v>19800</v>
       </c>
       <c r="R20" s="3">
-        <v>25300</v>
+        <v>10900</v>
       </c>
       <c r="S20" s="3">
-        <v>85000</v>
+        <v>23100</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="3">
-        <v>1731</v>
+        <v>2095</v>
       </c>
       <c r="B21" s="3">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3">
-        <v>1.784</v>
+        <v>9.2720000000000002</v>
       </c>
       <c r="D21" s="3">
-        <v>2.2759999999999998</v>
+        <v>11.115</v>
       </c>
       <c r="E21" s="3">
-        <v>2.754</v>
+        <v>11.454000000000001</v>
       </c>
       <c r="F21" s="3">
-        <v>0.23400000000000001</v>
+        <v>1.56</v>
       </c>
       <c r="G21" s="3">
-        <v>1.1499999999999999</v>
+        <v>0.878</v>
       </c>
       <c r="H21" s="3">
-        <v>2.4830000000000001</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="I21" s="3">
-        <v>822</v>
+        <v>1741.5</v>
       </c>
       <c r="J21" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>60900</v>
+        <v>35900</v>
       </c>
       <c r="L21" s="3">
-        <v>33300</v>
+        <v>16300</v>
       </c>
       <c r="M21" s="3">
-        <v>40400</v>
+        <v>14200</v>
       </c>
       <c r="N21" s="3">
-        <v>34100</v>
+        <v>3600</v>
       </c>
       <c r="O21" s="3">
-        <v>40000</v>
+        <v>58100</v>
       </c>
       <c r="P21" s="3">
-        <v>77700</v>
+        <v>64800</v>
       </c>
       <c r="Q21" s="3">
-        <v>50600</v>
+        <v>22900</v>
       </c>
       <c r="R21" s="3">
-        <v>37900</v>
+        <v>13600</v>
       </c>
       <c r="S21" s="3">
-        <v>104100</v>
+        <v>80000</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="3">
-        <v>1893</v>
+        <v>1707</v>
       </c>
       <c r="B22" s="3">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2.8730000000000002</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="F22" s="3">
+        <v>-1.6830000000000001</v>
+      </c>
+      <c r="G22" s="3">
+        <v>-1.5569999999999999</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1.139</v>
+      </c>
+      <c r="I22" s="3">
+        <v>796</v>
+      </c>
+      <c r="J22" s="4">
         <v>20</v>
       </c>
-      <c r="C22" s="3">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F22" s="3">
-        <v>-0.47599999999999998</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1217</v>
-      </c>
-      <c r="J22" s="4">
-        <v>24</v>
-      </c>
       <c r="K22" s="3">
-        <v>89600</v>
+        <v>57100</v>
       </c>
       <c r="L22" s="3">
-        <v>77400</v>
+        <v>45500</v>
       </c>
       <c r="M22" s="3">
-        <v>61900</v>
+        <v>38300</v>
       </c>
       <c r="N22" s="3">
-        <v>58900</v>
+        <v>28200</v>
       </c>
       <c r="O22" s="3">
-        <v>76500</v>
+        <v>42100</v>
       </c>
       <c r="P22" s="3">
-        <v>89400</v>
+        <v>54300</v>
       </c>
       <c r="Q22" s="3">
-        <v>64900</v>
+        <v>31700</v>
       </c>
       <c r="R22" s="3">
-        <v>49200</v>
+        <v>25300</v>
       </c>
       <c r="S22" s="3">
-        <v>171100</v>
+        <v>85000</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="3">
-        <v>1712</v>
+        <v>1731</v>
       </c>
       <c r="B23" s="3">
         <v>28</v>
       </c>
       <c r="C23" s="3">
-        <v>1.2789999999999999</v>
+        <v>1.784</v>
       </c>
       <c r="D23" s="3">
-        <v>1.5840000000000001</v>
+        <v>2.2759999999999998</v>
       </c>
       <c r="E23" s="3">
-        <v>3.9</v>
+        <v>2.754</v>
       </c>
       <c r="F23" s="3">
-        <v>1.635</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="G23" s="3">
-        <v>1.6859999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H23" s="3">
-        <v>3.323</v>
+        <v>2.4830000000000001</v>
       </c>
       <c r="I23" s="3">
-        <v>718.5</v>
+        <v>822</v>
       </c>
       <c r="J23" s="4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K23" s="3">
-        <v>48000</v>
+        <v>60900</v>
       </c>
       <c r="L23" s="3">
-        <v>42200</v>
+        <v>33300</v>
       </c>
       <c r="M23" s="3">
-        <v>38200</v>
+        <v>40400</v>
       </c>
       <c r="N23" s="3">
-        <v>38700</v>
+        <v>34100</v>
       </c>
       <c r="O23" s="3">
-        <v>41200</v>
+        <v>40000</v>
       </c>
       <c r="P23" s="3">
-        <v>69200</v>
+        <v>77700</v>
       </c>
       <c r="Q23" s="3">
-        <v>38600</v>
+        <v>50600</v>
       </c>
       <c r="R23" s="3">
-        <v>34600</v>
+        <v>37900</v>
       </c>
       <c r="S23" s="3">
-        <v>74500</v>
+        <v>104100</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="3">
-        <v>2295</v>
+        <v>1893</v>
       </c>
       <c r="B24" s="3">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3">
-        <v>2.0179999999999998</v>
+        <v>1.0469999999999999</v>
       </c>
       <c r="D24" s="3">
-        <v>2.0270000000000001</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="E24" s="3">
-        <v>4.2850000000000001</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F24" s="3">
-        <v>0.58799999999999997</v>
+        <v>-0.47599999999999998</v>
       </c>
       <c r="G24" s="3">
-        <v>2.3119999999999998</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="H24" s="3">
-        <v>5.2809999999999997</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="I24" s="3">
-        <v>2111</v>
+        <v>1217</v>
       </c>
       <c r="J24" s="4">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="K24" s="3">
-        <v>52500</v>
+        <v>89600</v>
       </c>
       <c r="L24" s="3">
-        <v>20100</v>
+        <v>77400</v>
       </c>
       <c r="M24" s="3">
-        <v>20100</v>
+        <v>61900</v>
       </c>
       <c r="N24" s="3">
-        <v>18900</v>
+        <v>58900</v>
       </c>
       <c r="O24" s="3">
-        <v>40800</v>
+        <v>76500</v>
       </c>
       <c r="P24" s="3">
-        <v>44600</v>
+        <v>89400</v>
       </c>
       <c r="Q24" s="3">
-        <v>25100</v>
+        <v>64900</v>
       </c>
       <c r="R24" s="3">
-        <v>22100</v>
+        <v>49200</v>
       </c>
       <c r="S24" s="3">
-        <v>62600</v>
+        <v>171100</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="3">
-        <v>2139</v>
+        <v>1712</v>
       </c>
       <c r="B25" s="3">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3">
-        <v>9.5969999999999995</v>
+        <v>1.2789999999999999</v>
       </c>
       <c r="D25" s="3">
-        <v>8.7560000000000002</v>
+        <v>1.5840000000000001</v>
       </c>
       <c r="E25" s="3">
-        <v>10.444000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="F25" s="3">
-        <v>6.2510000000000003</v>
+        <v>1.635</v>
       </c>
       <c r="G25" s="3">
-        <v>8.5670000000000002</v>
+        <v>1.6859999999999999</v>
       </c>
       <c r="H25" s="3">
-        <v>6.4720000000000004</v>
+        <v>3.323</v>
       </c>
       <c r="I25" s="3">
-        <v>738</v>
+        <v>718.5</v>
       </c>
       <c r="J25" s="4">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K25" s="3">
-        <v>14800</v>
+        <v>48000</v>
       </c>
       <c r="L25" s="3">
-        <v>14600</v>
+        <v>42200</v>
       </c>
       <c r="M25" s="3">
-        <v>13500</v>
+        <v>38200</v>
       </c>
       <c r="N25" s="3">
-        <v>9500</v>
+        <v>38700</v>
       </c>
       <c r="O25" s="3">
-        <v>51300</v>
+        <v>41200</v>
       </c>
       <c r="P25" s="3">
-        <v>34100</v>
+        <v>69200</v>
       </c>
       <c r="Q25" s="3">
-        <v>13500</v>
+        <v>38600</v>
       </c>
       <c r="R25" s="3">
-        <v>9500</v>
+        <v>34600</v>
       </c>
       <c r="S25" s="3">
-        <v>33500</v>
+        <v>74500</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="3">
-        <v>2111</v>
+        <v>2295</v>
       </c>
       <c r="B26" s="3">
         <v>11</v>
       </c>
       <c r="C26" s="3">
-        <v>13.103999999999999</v>
+        <v>2.0179999999999998</v>
       </c>
       <c r="D26" s="3">
-        <v>6.0339999999999998</v>
+        <v>2.0270000000000001</v>
       </c>
       <c r="E26" s="3">
-        <v>9.7769999999999992</v>
+        <v>4.2850000000000001</v>
       </c>
       <c r="F26" s="3">
-        <v>4.8129999999999997</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="G26" s="3">
-        <v>5.133</v>
+        <v>2.3119999999999998</v>
       </c>
       <c r="H26" s="3">
-        <v>5.3570000000000002</v>
+        <v>5.2809999999999997</v>
       </c>
       <c r="I26" s="3">
-        <v>543.5</v>
+        <v>2111</v>
       </c>
       <c r="J26" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K26" s="3">
-        <v>2700</v>
+        <v>52500</v>
       </c>
       <c r="L26" s="3">
-        <v>2600</v>
+        <v>20100</v>
       </c>
       <c r="M26" s="3">
-        <v>2200</v>
+        <v>20100</v>
       </c>
       <c r="N26" s="3">
-        <v>1300</v>
+        <v>18900</v>
       </c>
       <c r="O26" s="3">
-        <v>4400</v>
+        <v>40800</v>
       </c>
       <c r="P26" s="3">
-        <v>10700</v>
+        <v>44600</v>
       </c>
       <c r="Q26" s="3">
-        <v>4800</v>
+        <v>25100</v>
       </c>
       <c r="R26" s="3">
-        <v>2700</v>
+        <v>22100</v>
       </c>
       <c r="S26" s="3">
-        <v>15800</v>
+        <v>62600</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="3">
-        <v>1886</v>
+        <v>2139</v>
       </c>
       <c r="B27" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C27" s="3">
-        <v>4.6879999999999997</v>
+        <v>9.5969999999999995</v>
       </c>
       <c r="D27" s="3">
-        <v>7.09</v>
+        <v>8.7560000000000002</v>
       </c>
       <c r="E27" s="3">
-        <v>11.504</v>
+        <v>10.444000000000001</v>
       </c>
       <c r="F27" s="3">
-        <v>7.125</v>
+        <v>6.2510000000000003</v>
       </c>
       <c r="G27" s="3">
-        <v>4.2699999999999996</v>
+        <v>8.5670000000000002</v>
       </c>
       <c r="H27" s="3">
-        <v>4.9989999999999997</v>
+        <v>6.4720000000000004</v>
       </c>
       <c r="I27" s="3">
-        <v>647.5</v>
+        <v>738</v>
       </c>
       <c r="J27" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K27" s="3">
-        <v>17700</v>
+        <v>14800</v>
       </c>
       <c r="L27" s="3">
-        <v>11900</v>
+        <v>14600</v>
       </c>
       <c r="M27" s="3">
-        <v>21000</v>
+        <v>13500</v>
       </c>
       <c r="N27" s="3">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="O27" s="3">
-        <v>18000</v>
+        <v>51300</v>
       </c>
       <c r="P27" s="3">
-        <v>74900</v>
+        <v>34100</v>
       </c>
       <c r="Q27" s="3">
-        <v>22400</v>
+        <v>13500</v>
       </c>
       <c r="R27" s="3">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="S27" s="3">
-        <v>65900</v>
+        <v>33500</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="3">
-        <v>2331</v>
+        <v>2111</v>
       </c>
       <c r="B28" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C28" s="3">
-        <v>4.1980000000000004</v>
+        <v>13.103999999999999</v>
       </c>
       <c r="D28" s="3">
-        <v>10.952</v>
+        <v>6.0339999999999998</v>
       </c>
       <c r="E28" s="3">
-        <v>11.704000000000001</v>
+        <v>9.7769999999999992</v>
       </c>
       <c r="F28" s="3">
-        <v>16.244</v>
+        <v>4.8129999999999997</v>
       </c>
       <c r="G28" s="3">
-        <v>11.702999999999999</v>
+        <v>5.133</v>
       </c>
       <c r="H28" s="3">
-        <v>11.068</v>
+        <v>5.3570000000000002</v>
       </c>
       <c r="I28" s="3">
-        <v>246</v>
+        <v>543.5</v>
       </c>
       <c r="J28" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K28" s="3">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="L28" s="3">
-        <v>1400</v>
+        <v>2600</v>
       </c>
       <c r="M28" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O28" s="3">
+        <v>4400</v>
+      </c>
+      <c r="P28" s="3">
+        <v>10700</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>4800</v>
+      </c>
+      <c r="R28" s="3">
         <v>2700</v>
       </c>
-      <c r="N28" s="3">
-        <v>2600</v>
-      </c>
-      <c r="O28" s="3">
-        <v>48800</v>
-      </c>
-      <c r="P28" s="3">
-        <v>9600</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>6200</v>
-      </c>
-      <c r="R28" s="3">
-        <v>5400</v>
-      </c>
       <c r="S28" s="3">
-        <v>10900</v>
+        <v>15800</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="3">
-        <v>1850</v>
+        <v>1886</v>
       </c>
       <c r="B29" s="3">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C29" s="3">
-        <v>9.0090000000000003</v>
+        <v>4.6879999999999997</v>
       </c>
       <c r="D29" s="3">
-        <v>12.843</v>
+        <v>7.09</v>
       </c>
       <c r="E29" s="3">
-        <v>25.201000000000001</v>
+        <v>11.504</v>
       </c>
       <c r="F29" s="3">
-        <v>15.9</v>
+        <v>7.125</v>
       </c>
       <c r="G29" s="3">
-        <v>9.3650000000000002</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="H29" s="3">
-        <v>7.9580000000000002</v>
+        <v>4.9989999999999997</v>
       </c>
       <c r="I29" s="3">
-        <v>427</v>
+        <v>647.5</v>
       </c>
       <c r="J29" s="4">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K29" s="3">
-        <v>3800</v>
+        <v>17700</v>
       </c>
       <c r="L29" s="3">
-        <v>5300</v>
+        <v>11900</v>
       </c>
       <c r="M29" s="3">
-        <v>6500</v>
+        <v>21000</v>
       </c>
       <c r="N29" s="3">
-        <v>4900</v>
+        <v>7500</v>
       </c>
       <c r="O29" s="3">
+        <v>18000</v>
+      </c>
+      <c r="P29" s="3">
+        <v>74900</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>22400</v>
+      </c>
+      <c r="R29" s="3">
         <v>10500</v>
       </c>
-      <c r="P29" s="3">
-        <v>6700</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>4900</v>
-      </c>
-      <c r="R29" s="3">
-        <v>4100</v>
-      </c>
       <c r="S29" s="3">
-        <v>13300</v>
+        <v>65900</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="3">
-        <v>1674</v>
+        <v>1850</v>
       </c>
       <c r="B30" s="3">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C30" s="3">
-        <v>1.9</v>
+        <v>9.0090000000000003</v>
       </c>
       <c r="D30" s="3">
-        <v>1.712</v>
+        <v>12.843</v>
       </c>
       <c r="E30" s="3">
-        <v>3.399</v>
+        <v>25.201000000000001</v>
       </c>
       <c r="F30" s="3">
-        <v>1.319</v>
+        <v>15.9</v>
       </c>
       <c r="G30" s="3">
-        <v>2.298</v>
+        <v>9.3650000000000002</v>
       </c>
       <c r="H30" s="3">
-        <v>2.7570000000000001</v>
+        <v>7.9580000000000002</v>
       </c>
       <c r="I30" s="3">
-        <v>867.5</v>
+        <v>427</v>
       </c>
       <c r="J30" s="4">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K30" s="3">
-        <v>86500</v>
+        <v>3800</v>
       </c>
       <c r="L30" s="3">
-        <v>56300</v>
+        <v>5300</v>
       </c>
       <c r="M30" s="3">
-        <v>68400</v>
+        <v>6500</v>
       </c>
       <c r="N30" s="3">
-        <v>58500</v>
+        <v>4900</v>
       </c>
       <c r="O30" s="3">
-        <v>61000</v>
+        <v>10500</v>
       </c>
       <c r="P30" s="3">
-        <v>89200</v>
+        <v>6700</v>
       </c>
       <c r="Q30" s="3">
-        <v>61900</v>
+        <v>4900</v>
       </c>
       <c r="R30" s="3">
-        <v>46000</v>
+        <v>4100</v>
       </c>
       <c r="S30" s="3">
-        <v>109200</v>
+        <v>13300</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -3093,312 +3099,312 @@
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="3">
-        <v>1753</v>
+        <v>1989</v>
       </c>
       <c r="B40" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40" s="3">
-        <v>2.2170000000000001</v>
+        <v>2.0409999999999999</v>
       </c>
       <c r="D40" s="3">
-        <v>2.0379999999999998</v>
+        <v>3.2519999999999998</v>
       </c>
       <c r="E40" s="3">
-        <v>3.5</v>
+        <v>3.5329999999999999</v>
       </c>
       <c r="F40" s="3">
-        <v>0.76400000000000001</v>
+        <v>2.786</v>
       </c>
       <c r="G40" s="3">
-        <v>1.639</v>
+        <v>1.9690000000000001</v>
       </c>
       <c r="H40" s="3">
-        <v>2.903</v>
+        <v>1</v>
       </c>
       <c r="I40" s="3">
-        <v>906.5</v>
+        <v>641</v>
       </c>
       <c r="J40" s="4">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="K40" s="3">
-        <v>32800</v>
+        <v>19800</v>
       </c>
       <c r="L40" s="3">
-        <v>36500</v>
+        <v>10900</v>
       </c>
       <c r="M40" s="3">
-        <v>29400</v>
+        <v>9200</v>
       </c>
       <c r="N40" s="3">
-        <v>28900</v>
+        <v>7600</v>
       </c>
       <c r="O40" s="3">
-        <v>51000</v>
+        <v>11500</v>
       </c>
       <c r="P40" s="3">
-        <v>57900</v>
+        <v>34400</v>
       </c>
       <c r="Q40" s="3">
-        <v>32000</v>
+        <v>15300</v>
       </c>
       <c r="R40" s="3">
-        <v>29700</v>
+        <v>19900</v>
       </c>
       <c r="S40" s="3">
-        <v>58700</v>
+        <v>27800</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="3">
-        <v>1989</v>
+        <v>2245</v>
       </c>
       <c r="B41" s="3">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C41" s="3">
-        <v>2.0409999999999999</v>
+        <v>6.234</v>
       </c>
       <c r="D41" s="3">
-        <v>3.2519999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="E41" s="3">
-        <v>3.5329999999999999</v>
+        <v>9.2989999999999995</v>
       </c>
       <c r="F41" s="3">
-        <v>2.786</v>
+        <v>4.1909999999999998</v>
       </c>
       <c r="G41" s="3">
-        <v>1.9690000000000001</v>
+        <v>3.7930000000000001</v>
       </c>
       <c r="H41" s="3">
-        <v>1</v>
+        <v>4.7610000000000001</v>
       </c>
       <c r="I41" s="3">
-        <v>641</v>
+        <v>252.5</v>
       </c>
       <c r="J41" s="4">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K41" s="3">
-        <v>19800</v>
+        <v>3400</v>
       </c>
       <c r="L41" s="3">
-        <v>10900</v>
+        <v>2500</v>
       </c>
       <c r="M41" s="3">
-        <v>9200</v>
+        <v>2700</v>
       </c>
       <c r="N41" s="3">
-        <v>7600</v>
+        <v>2700</v>
       </c>
       <c r="O41" s="3">
-        <v>11500</v>
+        <v>8900</v>
       </c>
       <c r="P41" s="3">
-        <v>34400</v>
+        <v>9800</v>
       </c>
       <c r="Q41" s="3">
-        <v>15300</v>
+        <v>4000</v>
       </c>
       <c r="R41" s="3">
-        <v>19900</v>
+        <v>3100</v>
       </c>
       <c r="S41" s="3">
-        <v>27800</v>
+        <v>9700</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="3">
-        <v>2245</v>
+        <v>2375</v>
       </c>
       <c r="B42" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C42" s="3">
-        <v>6.234</v>
+        <v>3.629</v>
       </c>
       <c r="D42" s="3">
-        <v>2.8</v>
+        <v>3.9670000000000001</v>
       </c>
       <c r="E42" s="3">
-        <v>9.2989999999999995</v>
+        <v>5.125</v>
       </c>
       <c r="F42" s="3">
-        <v>4.1909999999999998</v>
+        <v>5.2969999999999997</v>
       </c>
       <c r="G42" s="3">
-        <v>3.7930000000000001</v>
+        <v>4.1550000000000002</v>
       </c>
       <c r="H42" s="3">
-        <v>4.7610000000000001</v>
+        <v>3.403</v>
       </c>
       <c r="I42" s="3">
-        <v>252.5</v>
+        <v>492</v>
       </c>
       <c r="J42" s="4">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="K42" s="3">
+        <v>8400</v>
+      </c>
+      <c r="L42" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M42" s="3">
         <v>3400</v>
       </c>
-      <c r="L42" s="3">
-        <v>2500</v>
-      </c>
-      <c r="M42" s="3">
-        <v>2700</v>
-      </c>
       <c r="N42" s="3">
-        <v>2700</v>
+        <v>3100</v>
       </c>
       <c r="O42" s="3">
-        <v>8900</v>
+        <v>19800</v>
       </c>
       <c r="P42" s="3">
-        <v>9800</v>
+        <v>13600</v>
       </c>
       <c r="Q42" s="3">
-        <v>4000</v>
+        <v>15500</v>
       </c>
       <c r="R42" s="3">
-        <v>3100</v>
+        <v>4800</v>
       </c>
       <c r="S42" s="3">
-        <v>9700</v>
+        <v>28000</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="3">
-        <v>2375</v>
+        <v>1938</v>
       </c>
       <c r="B43" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C43" s="3">
-        <v>3.629</v>
+        <v>3.222</v>
       </c>
       <c r="D43" s="3">
-        <v>3.9670000000000001</v>
+        <v>2.86</v>
       </c>
       <c r="E43" s="3">
-        <v>5.125</v>
+        <v>3.798</v>
       </c>
       <c r="F43" s="3">
-        <v>5.2969999999999997</v>
+        <v>-0.32100000000000001</v>
       </c>
       <c r="G43" s="3">
-        <v>4.1550000000000002</v>
+        <v>1.641</v>
       </c>
       <c r="H43" s="3">
-        <v>3.403</v>
+        <v>3.1419999999999999</v>
       </c>
       <c r="I43" s="3">
-        <v>492</v>
+        <v>964.5</v>
       </c>
       <c r="J43" s="4">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K43" s="3">
-        <v>8400</v>
+        <v>63500</v>
       </c>
       <c r="L43" s="3">
-        <v>3800</v>
+        <v>30600</v>
       </c>
       <c r="M43" s="3">
-        <v>3400</v>
+        <v>40700</v>
       </c>
       <c r="N43" s="3">
-        <v>3100</v>
+        <v>40100</v>
       </c>
       <c r="O43" s="3">
-        <v>19800</v>
+        <v>46200</v>
       </c>
       <c r="P43" s="3">
-        <v>13600</v>
+        <v>95100</v>
       </c>
       <c r="Q43" s="3">
-        <v>15500</v>
+        <v>46800</v>
       </c>
       <c r="R43" s="3">
-        <v>4800</v>
+        <v>30700</v>
       </c>
       <c r="S43" s="3">
-        <v>28000</v>
+        <v>71500</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="3">
-        <v>1938</v>
+        <v>1753</v>
       </c>
       <c r="B44" s="3">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C44" s="3">
-        <v>3.222</v>
+        <v>2.2170000000000001</v>
       </c>
       <c r="D44" s="3">
-        <v>2.86</v>
+        <v>2.0379999999999998</v>
       </c>
       <c r="E44" s="3">
-        <v>3.798</v>
+        <v>3.5</v>
       </c>
       <c r="F44" s="3">
-        <v>-0.32100000000000001</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="G44" s="3">
-        <v>1.641</v>
+        <v>1.639</v>
       </c>
       <c r="H44" s="3">
-        <v>3.1419999999999999</v>
+        <v>2.903</v>
       </c>
       <c r="I44" s="3">
-        <v>964.5</v>
+        <v>906.5</v>
       </c>
       <c r="J44" s="4">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K44" s="3">
-        <v>63500</v>
+        <v>32800</v>
       </c>
       <c r="L44" s="3">
-        <v>30600</v>
+        <v>36500</v>
       </c>
       <c r="M44" s="3">
-        <v>40700</v>
+        <v>29400</v>
       </c>
       <c r="N44" s="3">
-        <v>40100</v>
+        <v>28900</v>
       </c>
       <c r="O44" s="3">
-        <v>46200</v>
+        <v>51000</v>
       </c>
       <c r="P44" s="3">
-        <v>95100</v>
+        <v>57900</v>
       </c>
       <c r="Q44" s="3">
-        <v>46800</v>
+        <v>32000</v>
       </c>
       <c r="R44" s="3">
-        <v>30700</v>
+        <v>29700</v>
       </c>
       <c r="S44" s="3">
-        <v>71500</v>
+        <v>58700</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -5015,188 +5021,188 @@
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="3">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="B71" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C71" s="3">
-        <v>3.7879999999999998</v>
+        <v>1.6859999999999999</v>
       </c>
       <c r="D71" s="3">
-        <v>5.7720000000000002</v>
+        <v>2.2029999999999998</v>
       </c>
       <c r="E71" s="3">
-        <v>11.138</v>
+        <v>3.2229999999999999</v>
       </c>
       <c r="F71" s="3">
-        <v>4.1639999999999997</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="G71" s="3">
-        <v>1.19</v>
+        <v>1.69</v>
       </c>
       <c r="H71" s="3">
-        <v>4.1239999999999997</v>
+        <v>3.6</v>
       </c>
       <c r="I71" s="3">
-        <v>246</v>
+        <v>712</v>
       </c>
       <c r="J71" s="4">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K71" s="3">
-        <v>10500</v>
+        <v>44700</v>
       </c>
       <c r="L71" s="3">
-        <v>12200</v>
+        <v>42900</v>
       </c>
       <c r="M71" s="3">
-        <v>13900</v>
+        <v>34100</v>
       </c>
       <c r="N71" s="3">
-        <v>9800</v>
+        <v>29500</v>
       </c>
       <c r="O71" s="3">
-        <v>21900</v>
+        <v>49000</v>
       </c>
       <c r="P71" s="3">
-        <v>16600</v>
+        <v>69800</v>
       </c>
       <c r="Q71" s="3">
-        <v>10400</v>
+        <v>49900</v>
       </c>
       <c r="R71" s="3">
-        <v>6500</v>
+        <v>30000</v>
       </c>
       <c r="S71" s="3">
-        <v>38500</v>
+        <v>72500</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="3">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="B72" s="3">
+        <v>24</v>
+      </c>
+      <c r="C72" s="3">
+        <v>3.7879999999999998</v>
+      </c>
+      <c r="D72" s="3">
+        <v>5.7720000000000002</v>
+      </c>
+      <c r="E72" s="3">
+        <v>11.138</v>
+      </c>
+      <c r="F72" s="3">
+        <v>4.1639999999999997</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1.19</v>
+      </c>
+      <c r="H72" s="3">
+        <v>4.1239999999999997</v>
+      </c>
+      <c r="I72" s="3">
+        <v>246</v>
+      </c>
+      <c r="J72" s="4">
         <v>23</v>
       </c>
-      <c r="C72" s="3">
-        <v>1.0329999999999999</v>
-      </c>
-      <c r="D72" s="3">
-        <v>2.4929999999999999</v>
-      </c>
-      <c r="E72" s="3">
-        <v>4.2149999999999999</v>
-      </c>
-      <c r="F72" s="3">
-        <v>3.45</v>
-      </c>
-      <c r="G72" s="3">
-        <v>2.5139999999999998</v>
-      </c>
-      <c r="H72" s="3">
-        <v>4.2679999999999998</v>
-      </c>
-      <c r="I72" s="3">
-        <v>602</v>
-      </c>
-      <c r="J72" s="4">
-        <v>28</v>
-      </c>
       <c r="K72" s="3">
-        <v>11900</v>
+        <v>10500</v>
       </c>
       <c r="L72" s="3">
-        <v>10000</v>
+        <v>12200</v>
       </c>
       <c r="M72" s="3">
-        <v>12600</v>
+        <v>13900</v>
       </c>
       <c r="N72" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="O72" s="3">
-        <v>20500</v>
+        <v>21900</v>
       </c>
       <c r="P72" s="3">
-        <v>17900</v>
+        <v>16600</v>
       </c>
       <c r="Q72" s="3">
-        <v>11700</v>
+        <v>10400</v>
       </c>
       <c r="R72" s="3">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="S72" s="3">
-        <v>24900</v>
+        <v>38500</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="3">
-        <v>1786</v>
+        <v>1792</v>
       </c>
       <c r="B73" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C73" s="3">
-        <v>1.6859999999999999</v>
+        <v>1.0329999999999999</v>
       </c>
       <c r="D73" s="3">
-        <v>2.2029999999999998</v>
+        <v>2.4929999999999999</v>
       </c>
       <c r="E73" s="3">
-        <v>3.2229999999999999</v>
+        <v>4.2149999999999999</v>
       </c>
       <c r="F73" s="3">
-        <v>0.40100000000000002</v>
+        <v>3.45</v>
       </c>
       <c r="G73" s="3">
-        <v>1.69</v>
+        <v>2.5139999999999998</v>
       </c>
       <c r="H73" s="3">
-        <v>3.6</v>
+        <v>4.2679999999999998</v>
       </c>
       <c r="I73" s="3">
-        <v>712</v>
+        <v>602</v>
       </c>
       <c r="J73" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K73" s="3">
-        <v>44700</v>
+        <v>11900</v>
       </c>
       <c r="L73" s="3">
-        <v>42900</v>
+        <v>10000</v>
       </c>
       <c r="M73" s="3">
-        <v>34100</v>
+        <v>12600</v>
       </c>
       <c r="N73" s="3">
-        <v>29500</v>
+        <v>9700</v>
       </c>
       <c r="O73" s="3">
-        <v>49000</v>
+        <v>20500</v>
       </c>
       <c r="P73" s="3">
-        <v>69800</v>
+        <v>17900</v>
       </c>
       <c r="Q73" s="3">
-        <v>49900</v>
+        <v>11700</v>
       </c>
       <c r="R73" s="3">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="S73" s="3">
-        <v>72500</v>
+        <v>24900</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -5262,6 +5268,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T74">
+    <sortCondition ref="T1:T74"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>